--- a/medicine/Hématologie/Unité_de_sang/Unité_de_sang.xlsx
+++ b/medicine/Hématologie/Unité_de_sang/Unité_de_sang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_de_sang</t>
+          <t>Unité_de_sang</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'unité de sang, terme utilisé dans le langage courant, est une unité thérapeutique correspondant à une poche contenant une dose thérapeutique de produit sanguin utilisée pour les transfusions. Divers produits sont disponibles, dont les volumes varient de 50 ml (unités pédiatriques) à 650 ml (Plasma sécurisé d'aphérèse) selon le produit et le type d'unité concernée.
 Le produit le plus utilisé est le concentré de globules rouges. Plusieurs unités existent, dont les dénominations officielles sont les suivantes :
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_de_sang</t>
+          <t>Unité_de_sang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Décision du 20 octobre 2010, JORF du 28 novembre 2010 fixant la liste et les caractéristiques des produits sanguins labiles
 Arrêté du 09 mars 2010 relatif au tarif de cession des PSL
